--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBD8B8-BBC7-4D37-A116-373320616921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A04910A-1259-4B26-B9B8-5E82E4E5A79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
-    <sheet name="勝利UI仕様" sheetId="4" r:id="rId4"/>
-    <sheet name="敗北UI仕様" sheetId="5" r:id="rId5"/>
+    <sheet name="チュートリアル画面仕様" sheetId="7" r:id="rId3"/>
+    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId4"/>
+    <sheet name="勝利UI仕様" sheetId="4" r:id="rId5"/>
+    <sheet name="敗北UI仕様" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="208">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1660,6 +1661,159 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チュートリアル画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>このシートではゲームのチュートリアルについて記載します</t>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明は１枚絵を出して読ませるだけ</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイヤーがすることはない</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表示絵</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイボタンをもう一回押すとプレイシーンに移行する</t>
+    <rPh sb="9" eb="11">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>この辺に「Pを押してゲーム開始」と表示して点滅させる</t>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チュートリアル画面仕様</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移について</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移は以下の通りに行う</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>タイトルシーン　→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>チュートリアルシーン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　→　プレイシーン</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全てボタンを押すまで遷移しない</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1668,7 +1822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1906,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1886,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2008,6 +2170,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3189,6 +3354,310 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9041AB88-FEC7-499E-9733-BFE26955B0A0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{644EEFD6-955F-4F73-8AE2-41219250DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21846540" y="23458170"/>
+          <a:ext cx="1158240" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>スタートボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFC82FF-1896-4BCB-B6EC-4A90970C5035}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC794A45-3513-4B2D-8234-1818CD23246C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="10" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{3BF1567C-BF27-44AA-8957-80CF48455F7E}" end="{00000000-0000-0000-0000-000000000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20189190" y="23410545"/>
+          <a:ext cx="1657350" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91670</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F765234-36AE-4C63-8E9A-095E4523056C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="2385060"/>
+          <a:ext cx="2651990" cy="1493649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474E3CD8-16A6-4DCB-ADBE-45582CC458CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3840480" y="3589020"/>
+          <a:ext cx="1584960" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5017,7 +5486,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7808,7 +8277,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10642,17 +11111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="14.09765625" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10836,6 +11305,20 @@
       </c>
       <c r="E16" s="42" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="40">
+        <v>45995</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -10848,7 +11331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11069,6 +11552,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754EEFF-1065-4844-BDC7-6C73759CC8E0}">
+  <dimension ref="A1:Z30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="E9" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
+      <c r="E10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="20"/>
+      <c r="E12" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="20"/>
+      <c r="Z19" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="20"/>
+      <c r="F22" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12"/>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC165"/>
   <sheetViews>
@@ -11659,11 +12281,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11975,11 +12597,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A04910A-1259-4B26-B9B8-5E82E4E5A79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C2181-219C-4931-ACB4-57FA88322267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -11331,7 +11331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11555,7 +11555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754EEFF-1065-4844-BDC7-6C73759CC8E0}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C2181-219C-4931-ACB4-57FA88322267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ECD0E-F486-4DCE-8DC2-0ACFF730D887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="プレイ画面仕様" sheetId="3" r:id="rId4"/>
     <sheet name="勝利UI仕様" sheetId="4" r:id="rId5"/>
     <sheet name="敗北UI仕様" sheetId="5" r:id="rId6"/>
+    <sheet name="画面ワイプ仕様" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="211">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1814,6 +1815,36 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>このシートでは画面のワイプについて記載します</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面ワイプ仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -10794,6 +10825,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A947C8EC-192D-471E-80FF-DA066EAA3322}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{644EEFD6-955F-4F73-8AE2-41219250DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21846540" y="14695170"/>
+          <a:ext cx="1158240" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>スタートボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671529D9-4E93-40B5-906E-26C35B1C5C3D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC794A45-3513-4B2D-8234-1818CD23246C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{3BF1567C-BF27-44AA-8957-80CF48455F7E}" end="{00000000-0000-0000-0000-000000000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20189190" y="14647545"/>
+          <a:ext cx="1657350" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11111,10 +11346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11321,6 +11556,20 @@
         <v>183</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="40">
+        <v>46010</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11331,7 +11580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11555,7 +11804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754EEFF-1065-4844-BDC7-6C73759CC8E0}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12601,7 +12850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12822,12 +13073,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="47">
-        <v>45974</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>179</v>
-      </c>
+      <c r="A84" s="47"/>
+      <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
@@ -12895,4 +13142,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\1.辻斬り資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ECD0E-F486-4DCE-8DC2-0ACFF730D887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A25937-2240-4A53-9CEA-EA9573216183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1848,12 +1848,163 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>画面ワイプを行う場所は以下の通り</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移ボタンを押したとき</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステージ開始前</t>
+    <rPh sb="4" eb="7">
+      <t>カイシマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移ボタンを押した時</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移時のワイプは共通です</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細説明</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ボタンを押した後６０フレームのうちに画面を暗転させる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>一番前にある板の透明度を０％にする</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウメイド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステージ開始時</t>
+    <rPh sb="4" eb="7">
+      <t>カイシジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイシーンの間に新たにシーンを追加します</t>
+    <rPh sb="7" eb="8">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>①について</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これは開始時点の状態です</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +2096,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2079,7 +2239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5545,8 +5706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="2133600"/>
-          <a:ext cx="3393757" cy="2095500"/>
+          <a:off x="3448050" y="2133600"/>
+          <a:ext cx="3433762" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -6179,8 +6340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8048625" y="2133600"/>
-          <a:ext cx="3396615" cy="2095500"/>
+          <a:off x="8105775" y="2133600"/>
+          <a:ext cx="3438525" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -8336,8 +8497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="2133600"/>
-          <a:ext cx="3393757" cy="2095500"/>
+          <a:off x="3448050" y="2133600"/>
+          <a:ext cx="3433762" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -8970,8 +9131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8048625" y="2133600"/>
-          <a:ext cx="3396615" cy="2095500"/>
+          <a:off x="8105775" y="2133600"/>
+          <a:ext cx="3438525" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -10831,13 +10992,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10963,13 +11124,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11024,6 +11185,314 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>138489</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B1C0ED-6B3B-45BD-AFCC-BEDE16516945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814785" y="5420179"/>
+          <a:ext cx="3077633" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>705</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F3A1DC-57FB-4C69-896B-6748315F315A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385786" y="5421555"/>
+          <a:ext cx="3103133" cy="1713124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>705</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>189124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE900C4B-63B8-474A-BBEB-E5ACBE0741AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385786" y="7706179"/>
+          <a:ext cx="3103133" cy="1713124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9776</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D604E999-A75D-4EB7-9AC4-0F78E600530D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558143" y="10002627"/>
+          <a:ext cx="3103133" cy="1713124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>58965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67346</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 上 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969FD5A7-1F96-40C4-B19D-60EDFD5370C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3274785" y="10432144"/>
+          <a:ext cx="484632" cy="978408"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61685</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>20865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>56460</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>46773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 上 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B501A99E-8E21-4739-A3C3-E5BDE7041BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427185" y="10584544"/>
+          <a:ext cx="484632" cy="978408"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11348,33 +11817,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="21.6875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B3" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -11388,7 +11857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B6" s="15">
         <v>45946</v>
       </c>
@@ -11402,7 +11871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B7" s="15">
         <v>45965</v>
       </c>
@@ -11416,7 +11885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B8" s="15">
         <v>45965</v>
       </c>
@@ -11430,7 +11899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B9" s="38">
         <v>45967</v>
       </c>
@@ -11444,7 +11913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B10" s="40">
         <v>45974</v>
       </c>
@@ -11458,7 +11927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B11" s="40">
         <v>45974</v>
       </c>
@@ -11472,7 +11941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B12" s="40">
         <v>45974</v>
       </c>
@@ -11486,7 +11955,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B13" s="15">
         <v>45946</v>
       </c>
@@ -11500,7 +11969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B14" s="15">
         <v>45965</v>
       </c>
@@ -11514,7 +11983,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B15" s="38">
         <v>45965</v>
       </c>
@@ -11528,7 +11997,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B16" s="55">
         <v>45988</v>
       </c>
@@ -11542,7 +12011,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B17" s="40">
         <v>45995</v>
       </c>
@@ -11556,7 +12025,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B18" s="40">
         <v>46010</v>
       </c>
@@ -11582,13 +12051,13 @@
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -11599,102 +12068,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="10"/>
       <c r="C17"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="10"/>
       <c r="C21"/>
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AF28" s="11"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="14">
         <v>45975</v>
       </c>
@@ -11706,87 +12175,87 @@
       </c>
       <c r="AF29" s="11"/>
     </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="10"/>
       <c r="C31"/>
       <c r="E31" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="10"/>
       <c r="C38"/>
       <c r="E38" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="8"/>
       <c r="D49" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="12"/>
       <c r="D76" s="3" t="s">
         <v>40</v>
@@ -11806,13 +12275,13 @@
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -11824,33 +12293,33 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="20"/>
       <c r="E9" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="20"/>
       <c r="E10" s="19" t="s">
         <v>66</v>
@@ -11859,73 +12328,73 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="20"/>
       <c r="E12" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="20"/>
       <c r="Z19" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="20"/>
       <c r="F22" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="8"/>
       <c r="D24" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F28" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="12"/>
       <c r="D30" s="3" t="s">
         <v>40</v>
@@ -11945,13 +12414,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -11962,72 +12431,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="8"/>
       <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="14">
         <v>45974</v>
       </c>
@@ -12038,12 +12507,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="47">
         <v>45974</v>
       </c>
@@ -12054,7 +12523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="20"/>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -12062,7 +12531,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="20"/>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -12070,7 +12539,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="20"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -12078,35 +12547,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="20"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="20"/>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="10"/>
       <c r="C44"/>
       <c r="E44" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G48" t="s">
         <v>53</v>
       </c>
@@ -12117,12 +12586,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G50" t="s">
         <v>56</v>
       </c>
@@ -12130,7 +12599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="14">
         <v>45988</v>
       </c>
@@ -12141,24 +12610,24 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="17"/>
       <c r="C55" s="19"/>
       <c r="F55" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H58" t="s">
         <v>62</v>
       </c>
@@ -12166,7 +12635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="47">
         <v>45974</v>
       </c>
@@ -12177,12 +12646,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A63" s="47">
         <v>45974</v>
       </c>
@@ -12193,7 +12662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G64" t="s">
         <v>66</v>
       </c>
@@ -12201,29 +12670,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="10"/>
       <c r="C68" s="19"/>
       <c r="E68" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A73" s="14">
         <v>45967</v>
       </c>
@@ -12234,12 +12703,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G74" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A75" s="14">
         <v>45974</v>
       </c>
@@ -12250,66 +12719,66 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="10"/>
       <c r="C77" s="19"/>
       <c r="E77" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H85" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="10"/>
       <c r="C88"/>
       <c r="E88" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94" s="37">
         <v>45974</v>
       </c>
@@ -12321,22 +12790,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AD103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL112" t="s">
         <v>153</v>
       </c>
@@ -12344,81 +12813,81 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="2:38" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:38" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="10"/>
       <c r="C116"/>
       <c r="E116" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F120" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G121" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F125" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="2:38" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:38" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="17"/>
       <c r="C127" s="19"/>
       <c r="F127" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G129" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G131" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H133" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H134" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A136" s="14">
         <v>45967</v>
       </c>
@@ -12429,28 +12898,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A139" s="14"/>
     </row>
-    <row r="141" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="17"/>
       <c r="C141" s="19"/>
       <c r="F141" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A144" s="14">
         <v>45967</v>
       </c>
@@ -12461,65 +12930,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H145" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G147" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H149" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="17"/>
       <c r="C151" s="19"/>
       <c r="F151" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G153" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G155" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H157" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="12"/>
       <c r="D159" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="20"/>
     </row>
-    <row r="161" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="20"/>
     </row>
-    <row r="162" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="20"/>
     </row>
-    <row r="163" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="20"/>
     </row>
-    <row r="164" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="20"/>
     </row>
-    <row r="165" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="20"/>
     </row>
   </sheetData>
@@ -12536,14 +13005,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.09765625" style="23"/>
+    <col min="3" max="16384" width="2.125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -12554,181 +13023,181 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="W49" s="23" t="s">
         <v>172</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -12739,28 +13208,28 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O77" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A87" s="46">
         <v>45988</v>
       </c>
@@ -12772,27 +13241,27 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A95" s="52"/>
     </row>
-    <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E109" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="31"/>
       <c r="C113" s="33"/>
       <c r="E113" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E115" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A117" s="46">
         <v>45974</v>
       </c>
@@ -12804,12 +13273,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E119" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E121" s="23" t="s">
         <v>160</v>
       </c>
@@ -12820,7 +13289,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E123" s="23" t="s">
         <v>162</v>
       </c>
@@ -12831,7 +13300,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="43"/>
       <c r="E125" s="44" t="s">
         <v>97</v>
@@ -12854,14 +13323,14 @@
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.09765625" style="23"/>
+    <col min="3" max="16384" width="2.125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -12872,186 +13341,186 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X49" s="23" t="s">
         <v>175</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AD73" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -13062,53 +13531,53 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O77" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A84" s="47"/>
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="31"/>
       <c r="C91" s="33"/>
       <c r="E91" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E93" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E97" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E99" s="23" t="s">
         <v>160</v>
       </c>
@@ -13119,7 +13588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E101" s="23" t="s">
         <v>161</v>
       </c>
@@ -13130,7 +13599,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="43"/>
       <c r="E103" s="44" t="s">
         <v>97</v>
@@ -13146,19 +13615,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="105" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -13170,32 +13639,254 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="D10" s="3" t="s">
+      <c r="E9" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="20"/>
+      <c r="F11" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="20"/>
+      <c r="F12" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="19"/>
+      <c r="E14" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B16" s="20"/>
+      <c r="E16" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B18" s="20"/>
+      <c r="F18" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B20" s="20"/>
+      <c r="G20" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="20"/>
+      <c r="G21" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B23" s="10"/>
+      <c r="C23" s="19"/>
+      <c r="E23" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B25" s="20"/>
+      <c r="E25" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B27" s="20"/>
+      <c r="F27" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B28" s="20"/>
+      <c r="G28" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB28" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B39" s="20"/>
+      <c r="F39" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B51" s="20"/>
+      <c r="G51" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B67" s="12"/>
+      <c r="D67" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A25937-2240-4A53-9CEA-EA9573216183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23B5E3-8CAB-477E-975A-B2ED3446FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1983,10 +1983,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>①について</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>これは開始時点の状態です</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -1996,6 +1992,114 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>矢印の方向に画像をスライドさせます</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開始時</t>
+    <rPh sb="0" eb="3">
+      <t>カイシジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>終了時</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>移動後は下の状態になるようにします</t>
+    <rPh sb="0" eb="3">
+      <t>イドウゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>スライドスピードは40p/60f</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>（60フレーム中に40ピクセル動かす）</t>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>後で調整します</t>
+    <rPh sb="0" eb="1">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>②になった後に３秒待機後</t>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ビョウタイキゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移ワイプを行いプレイシーンに移行します</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敵キャラはステージごとに変化します</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SEについて</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SE以外作成</t>
+    <rPh sb="2" eb="6">
+      <t>イガイサクセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -10992,13 +11096,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11124,13 +11228,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11278,13 +11382,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>162581</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>705</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>189124</xdr:rowOff>
     </xdr:to>
@@ -11309,7 +11413,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2385786" y="7706179"/>
+          <a:off x="2548367" y="7706179"/>
           <a:ext cx="3103133" cy="1713124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11431,16 +11535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>61685</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>20865</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>56460</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>46773</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158061</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11454,8 +11558,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3427185" y="10584544"/>
+        <a:xfrm rot="10800000">
+          <a:off x="4508500" y="10373179"/>
           <a:ext cx="484632" cy="978408"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -11493,6 +11597,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>138490</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFE769B-B9EB-49CD-98CB-6D868A24B9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2549071" y="12468679"/>
+          <a:ext cx="3077633" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11815,11 +11963,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -12037,6 +12183,20 @@
       </c>
       <c r="E18" s="42" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B19" s="40">
+        <v>46028</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -13615,11 +13775,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="105" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
-    </sheetView>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -13699,25 +13857,25 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="20"/>
       <c r="F18" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="20"/>
       <c r="G20" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="20"/>
       <c r="G21" s="19" t="s">
         <v>219</v>
@@ -13726,167 +13884,256 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:30" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="10"/>
       <c r="C23" s="19"/>
       <c r="E23" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="20"/>
       <c r="E25" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="20"/>
     </row>
-    <row r="27" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="20"/>
       <c r="F27" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="20"/>
       <c r="G28" s="19" t="s">
         <v>223</v>
       </c>
+      <c r="I28" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="AB28" s="19" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AD28" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="20"/>
     </row>
-    <row r="30" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="2:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="20"/>
     </row>
-    <row r="33" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="20"/>
     </row>
-    <row r="35" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="20"/>
     </row>
-    <row r="36" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="20"/>
     </row>
-    <row r="38" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="20"/>
     </row>
-    <row r="39" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="20"/>
-      <c r="F39" s="18" t="s">
+    </row>
+    <row r="40" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B40" s="20"/>
+      <c r="G40" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="41" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="20"/>
     </row>
-    <row r="44" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="20"/>
     </row>
-    <row r="45" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="20"/>
     </row>
-    <row r="47" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="20"/>
     </row>
-    <row r="49" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="20"/>
     </row>
-    <row r="50" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="20"/>
     </row>
-    <row r="51" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="20"/>
-      <c r="G51" s="19" t="s">
+    </row>
+    <row r="52" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B52" s="20"/>
+      <c r="G52" s="19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="20"/>
     </row>
-    <row r="54" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="20"/>
-    </row>
-    <row r="55" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AB54" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AC55" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="20"/>
-    </row>
-    <row r="57" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AE56" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="20"/>
     </row>
-    <row r="58" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="20"/>
     </row>
-    <row r="61" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="20"/>
     </row>
-    <row r="63" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="20"/>
     </row>
-    <row r="64" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="20"/>
-    </row>
-    <row r="65" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G64" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="20"/>
     </row>
-    <row r="66" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B67" s="12"/>
-      <c r="D67" s="3" t="s">
+    <row r="67" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B76" s="20"/>
+      <c r="G76" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B77" s="20"/>
+      <c r="H77" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B79" s="20"/>
+      <c r="I79" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B81" s="8"/>
+      <c r="D81" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B88" s="12"/>
+      <c r="D88" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23B5E3-8CAB-477E-975A-B2ED3446FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C620C46-EC12-4899-8EFA-D7B366E429A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="241">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1931,19 +1931,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>一番前にある板の透明度を０％にする</t>
-    <rPh sb="0" eb="3">
-      <t>イチバンマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>トウメイド</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>※</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2100,6 +2087,58 @@
     <t>SE以外作成</t>
     <rPh sb="2" eb="6">
       <t>イガイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開始時</t>
+    <rPh sb="0" eb="3">
+      <t>カイシジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>一番前にある黒い板の透明度を０％から100%にする</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トウメイド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面遷移ボタンを押した時</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>一番前にある黒い板の透明度を０％にする</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トウメイド</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2469,7 +2508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11096,13 +11135,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11228,13 +11267,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11295,13 +11334,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>138489</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11339,13 +11378,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>705</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11383,13 +11422,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>162581</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>189124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11427,13 +11466,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9776</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11471,13 +11510,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>58965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>67346</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>84873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11537,13 +11576,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>158061</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>25908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11603,13 +11642,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>138490</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11965,7 +12004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -12196,7 +12235,7 @@
         <v>209</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -13775,9 +13814,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
-  <dimension ref="A1:AE88"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -13857,134 +13896,195 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="20"/>
       <c r="F18" s="57" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="AH18"/>
+    </row>
+    <row r="19" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F19" s="57"/>
+      <c r="G19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+    </row>
+    <row r="20" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="20"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="20"/>
+      <c r="F21" s="57"/>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+    </row>
+    <row r="22" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B22" s="20"/>
+      <c r="F22" s="57"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+    </row>
+    <row r="23" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B23" s="20"/>
+      <c r="F23" s="57"/>
+      <c r="G23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+    </row>
+    <row r="24" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B24" s="20"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+    </row>
+    <row r="25" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B25" s="20"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B21" s="20"/>
-      <c r="G21" s="19" t="s">
+      <c r="I25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+    </row>
+    <row r="26" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B26" s="20"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG26"/>
+      <c r="AH26"/>
+    </row>
+    <row r="27" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B27" s="20"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+    </row>
+    <row r="29" spans="2:34" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B29" s="10"/>
+      <c r="C29" s="19"/>
+      <c r="E29" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="E23" s="9" t="s">
+    </row>
+    <row r="30" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="20"/>
-      <c r="E25" s="19" t="s">
+    <row r="32" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B33" s="20"/>
+      <c r="F33" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B26" s="20"/>
-    </row>
-    <row r="27" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="20"/>
-      <c r="F27" s="19" t="s">
+    <row r="34" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="20"/>
+      <c r="G34" s="19" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="20"/>
-      <c r="G28" s="19" t="s">
+      <c r="I34" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB34" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="AD34" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AB28" s="19" t="s">
+    </row>
+    <row r="35" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B46" s="20"/>
+      <c r="G46" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="AD28" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B29" s="20"/>
-    </row>
-    <row r="30" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B30" s="20"/>
-    </row>
-    <row r="31" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B31" s="20"/>
-    </row>
-    <row r="32" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B32" s="20"/>
-    </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="20"/>
-    </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="20"/>
-    </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B35" s="20"/>
-    </row>
-    <row r="36" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B36" s="20"/>
-    </row>
-    <row r="37" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B37" s="20"/>
-    </row>
-    <row r="38" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="20"/>
-    </row>
-    <row r="39" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B39" s="20"/>
-    </row>
-    <row r="40" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B40" s="20"/>
-      <c r="G40" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B41" s="20"/>
-    </row>
-    <row r="42" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B43" s="20"/>
-    </row>
-    <row r="44" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B44" s="20"/>
-    </row>
-    <row r="45" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B45" s="20"/>
-    </row>
-    <row r="46" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B46" s="20"/>
-    </row>
-    <row r="47" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="47" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="20"/>
     </row>
     <row r="49" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
@@ -13998,142 +14098,160 @@
     </row>
     <row r="52" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="20"/>
-      <c r="G52" s="19" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="53" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="20"/>
     </row>
     <row r="54" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="20"/>
-      <c r="AB54" s="19" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="55" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="20"/>
-      <c r="AC55" s="19" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="56" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="20"/>
-      <c r="AE56" s="19" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="57" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="20"/>
     </row>
     <row r="58" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="20"/>
+      <c r="G58" s="19" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="59" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="20"/>
     </row>
     <row r="60" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="20"/>
+      <c r="AB60" s="19" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="61" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="20"/>
+      <c r="AC61" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="20"/>
+      <c r="AE62" s="19" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="63" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="20"/>
-      <c r="G64" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="65" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="20"/>
     </row>
-    <row r="66" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="20"/>
     </row>
-    <row r="68" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="20"/>
     </row>
-    <row r="69" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="20"/>
     </row>
-    <row r="70" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="20"/>
-    </row>
-    <row r="71" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G70" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="20"/>
     </row>
-    <row r="72" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="20"/>
     </row>
-    <row r="74" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="20"/>
     </row>
-    <row r="75" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="20"/>
     </row>
-    <row r="76" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="20"/>
-      <c r="G76" s="19" t="s">
+    </row>
+    <row r="77" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B82" s="20"/>
+      <c r="G82" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B83" s="20"/>
+      <c r="H83" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B77" s="20"/>
-      <c r="H77" s="19" t="s">
+    <row r="84" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B85" s="20"/>
+      <c r="I85" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B78" s="20"/>
-    </row>
-    <row r="79" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B79" s="20"/>
-      <c r="I79" s="19" t="s">
+    <row r="86" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B87" s="8"/>
+      <c r="D87" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B80" s="20"/>
-    </row>
-    <row r="81" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B81" s="8"/>
-      <c r="D81" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B82" s="20"/>
-    </row>
-    <row r="83" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B83" s="20"/>
-    </row>
-    <row r="84" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B85" s="20"/>
-    </row>
-    <row r="86" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B86" s="20"/>
-    </row>
-    <row r="87" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B87" s="20"/>
-    </row>
-    <row r="88" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B88" s="12"/>
-      <c r="D88" s="3" t="s">
+    <row r="88" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B94" s="12"/>
+      <c r="D94" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C620C46-EC12-4899-8EFA-D7B366E429A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927EC9E1-8A80-4917-AB65-493A1C5F9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="246">
   <si>
     <t>更新履歴</t>
   </si>
@@ -2140,6 +2140,35 @@
     <rPh sb="10" eb="13">
       <t>トウメイド</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>流すタイミングは２つです</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・フレームの移動開始時</t>
+    <rPh sb="6" eb="11">
+      <t>イドウカイシジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・移動完了後</t>
+    <rPh sb="1" eb="6">
+      <t>イドウカンリョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「VS音源.mp3」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「移動開始時音源.mp3」</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -11135,13 +11164,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11267,13 +11296,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13814,7 +13843,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
@@ -14236,22 +14265,43 @@
     </row>
     <row r="89" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="20"/>
+      <c r="E89" s="19" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="90" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="20"/>
+      <c r="F90" s="19" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="91" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="20"/>
+      <c r="G91" s="19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="92" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="20"/>
     </row>
     <row r="93" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="20"/>
-    </row>
-    <row r="94" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B94" s="12"/>
-      <c r="D94" s="3" t="s">
+      <c r="F93" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B94" s="20"/>
+      <c r="G94" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B96" s="12"/>
+      <c r="D96" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927EC9E1-8A80-4917-AB65-493A1C5F9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50CC09-CFD4-4A87-8949-4085431238EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="248">
   <si>
     <t>更新履歴</t>
   </si>
@@ -2171,12 +2171,26 @@
     <t>「移動開始時音源.mp3」</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>「敗北ハンコ.mp3」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敗北SE追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2280,6 +2294,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2411,7 +2432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2538,6 +2559,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12031,9 +12055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -12265,6 +12291,20 @@
       </c>
       <c r="E19" s="42" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B20" s="40">
+        <v>46028</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -13547,8 +13587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -13769,31 +13809,42 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:7" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A84" s="47"/>
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A87" s="52">
+        <v>46028</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="31"/>
       <c r="C91" s="33"/>
       <c r="E91" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E93" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
@@ -13837,7 +13888,8 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13845,7 +13897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
   <dimension ref="A1:AH96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50CC09-CFD4-4A87-8949-4085431238EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9815DA9-AD64-49CC-879C-9AE7B2189648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="251">
   <si>
     <t>更新履歴</t>
   </si>
@@ -2182,6 +2182,27 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30フレーム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数値変更</t>
+    <rPh sb="0" eb="4">
+      <t>スウチヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数値の変更</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2432,7 +2453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2562,6 +2583,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5902,8 +5925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="2133600"/>
-          <a:ext cx="3433762" cy="2095500"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -6536,8 +6559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="2133600"/>
-          <a:ext cx="3438525" cy="2095500"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -8693,8 +8716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="2133600"/>
-          <a:ext cx="3433762" cy="2095500"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -9327,8 +9350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="2133600"/>
-          <a:ext cx="3438525" cy="2095500"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -11481,8 +11504,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>189124</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11733,6 +11756,61 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C952083-4BE5-4AA2-9EFE-0C2339DF3B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664857" y="4688114"/>
+          <a:ext cx="812800" cy="7257"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12055,35 +12133,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="21.6875" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -12097,7 +12175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>45946</v>
       </c>
@@ -12111,7 +12189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15">
         <v>45965</v>
       </c>
@@ -12125,7 +12203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="15">
         <v>45965</v>
       </c>
@@ -12139,7 +12217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="38">
         <v>45967</v>
       </c>
@@ -12153,7 +12231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="40">
         <v>45974</v>
       </c>
@@ -12167,7 +12245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="40">
         <v>45974</v>
       </c>
@@ -12181,7 +12259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="40">
         <v>45974</v>
       </c>
@@ -12195,7 +12273,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="15">
         <v>45946</v>
       </c>
@@ -12209,7 +12287,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="15">
         <v>45965</v>
       </c>
@@ -12223,7 +12301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="38">
         <v>45965</v>
       </c>
@@ -12237,7 +12315,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="55">
         <v>45988</v>
       </c>
@@ -12251,7 +12329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="40">
         <v>45995</v>
       </c>
@@ -12265,7 +12343,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="40">
         <v>46010</v>
       </c>
@@ -12279,7 +12357,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="40">
         <v>46028</v>
       </c>
@@ -12293,7 +12371,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="40">
         <v>46028</v>
       </c>
@@ -12305,6 +12383,20 @@
       </c>
       <c r="E20" s="42" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="40">
+        <v>46029</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -12319,13 +12411,13 @@
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -12336,102 +12428,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10"/>
       <c r="C17"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10"/>
       <c r="C21"/>
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AF28" s="11"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>45975</v>
       </c>
@@ -12443,87 +12535,87 @@
       </c>
       <c r="AF29" s="11"/>
     </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10"/>
       <c r="C31"/>
       <c r="E31" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38"/>
       <c r="E38" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="8"/>
       <c r="D49" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="12"/>
       <c r="D76" s="3" t="s">
         <v>40</v>
@@ -12543,13 +12635,13 @@
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -12561,33 +12653,33 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="20"/>
       <c r="E9" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="20"/>
       <c r="E10" s="19" t="s">
         <v>66</v>
@@ -12596,73 +12688,73 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="20"/>
       <c r="E12" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="20"/>
       <c r="Z19" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:26" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="20"/>
       <c r="F22" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
       <c r="D24" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
       <c r="D30" s="3" t="s">
         <v>40</v>
@@ -12682,13 +12774,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -12699,72 +12791,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>45974</v>
       </c>
@@ -12775,12 +12867,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="47">
         <v>45974</v>
       </c>
@@ -12791,7 +12883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20"/>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -12799,7 +12891,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -12807,7 +12899,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -12815,35 +12907,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="20"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="20"/>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="10"/>
       <c r="C44"/>
       <c r="E44" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
         <v>53</v>
       </c>
@@ -12854,12 +12946,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G50" t="s">
         <v>56</v>
       </c>
@@ -12867,7 +12959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14">
         <v>45988</v>
       </c>
@@ -12878,24 +12970,24 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="17"/>
       <c r="C55" s="19"/>
       <c r="F55" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H58" t="s">
         <v>62</v>
       </c>
@@ -12903,7 +12995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="47">
         <v>45974</v>
       </c>
@@ -12914,12 +13006,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="47">
         <v>45974</v>
       </c>
@@ -12930,7 +13022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G64" t="s">
         <v>66</v>
       </c>
@@ -12938,29 +13030,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="10"/>
       <c r="C68" s="19"/>
       <c r="E68" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14">
         <v>45967</v>
       </c>
@@ -12971,12 +13063,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G74" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14">
         <v>45974</v>
       </c>
@@ -12987,66 +13079,66 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="10"/>
       <c r="C77" s="19"/>
       <c r="E77" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H85" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="10"/>
       <c r="C88"/>
       <c r="E88" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="37">
         <v>45974</v>
       </c>
@@ -13058,22 +13150,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL112" t="s">
         <v>153</v>
       </c>
@@ -13081,81 +13173,81 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="2:38" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:38" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="10"/>
       <c r="C116"/>
       <c r="E116" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G121" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F125" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="2:38" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:38" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="17"/>
       <c r="C127" s="19"/>
       <c r="F127" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G129" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G131" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H133" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H134" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="14">
         <v>45967</v>
       </c>
@@ -13166,28 +13258,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="14"/>
     </row>
-    <row r="141" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="17"/>
       <c r="C141" s="19"/>
       <c r="F141" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="14">
         <v>45967</v>
       </c>
@@ -13198,65 +13290,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H145" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G147" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H149" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="17"/>
       <c r="C151" s="19"/>
       <c r="F151" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G153" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G155" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H157" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="12"/>
       <c r="D159" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="20"/>
     </row>
-    <row r="161" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="20"/>
     </row>
-    <row r="162" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="20"/>
     </row>
-    <row r="163" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="20"/>
     </row>
-    <row r="164" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="20"/>
     </row>
-    <row r="165" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="20"/>
     </row>
   </sheetData>
@@ -13273,14 +13365,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.125" style="23"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -13291,181 +13383,181 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W49" s="23" t="s">
         <v>172</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -13476,28 +13568,28 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:6" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="46">
         <v>45988</v>
       </c>
@@ -13509,27 +13601,27 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="52"/>
     </row>
-    <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E109" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="31"/>
       <c r="C113" s="33"/>
       <c r="E113" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E115" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="46">
         <v>45974</v>
       </c>
@@ -13541,12 +13633,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E119" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E121" s="23" t="s">
         <v>160</v>
       </c>
@@ -13557,7 +13649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" s="23" t="s">
         <v>162</v>
       </c>
@@ -13568,7 +13660,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="43"/>
       <c r="E125" s="44" t="s">
         <v>97</v>
@@ -13587,18 +13679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.125" style="23"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -13609,186 +13701,186 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X49" s="23" t="s">
         <v>175</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD73" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -13799,29 +13891,29 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:7" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="47"/>
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="52">
         <v>46028</v>
       </c>
@@ -13832,31 +13924,31 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="31"/>
       <c r="C91" s="33"/>
       <c r="E91" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E93" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E97" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E99" s="23" t="s">
         <v>160</v>
       </c>
@@ -13867,7 +13959,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" s="23" t="s">
         <v>161</v>
       </c>
@@ -13878,7 +13970,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="43"/>
       <c r="E103" s="44" t="s">
         <v>97</v>
@@ -13897,15 +13989,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
   <dimension ref="A1:AH96"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -13917,70 +14011,70 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="20"/>
       <c r="E9" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="20"/>
       <c r="F11" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="20"/>
       <c r="F12" s="19" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="19"/>
       <c r="E14" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="20"/>
       <c r="E16" s="19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="20"/>
       <c r="F18" s="57" t="s">
         <v>216</v>
@@ -13990,7 +14084,7 @@
       <c r="I18"/>
       <c r="AH18"/>
     </row>
-    <row r="19" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="20"/>
       <c r="F19" s="57"/>
       <c r="G19" t="s">
@@ -14001,7 +14095,7 @@
       <c r="AG19"/>
       <c r="AH19"/>
     </row>
-    <row r="20" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="20"/>
       <c r="F20" s="57"/>
       <c r="G20"/>
@@ -14010,7 +14104,7 @@
       <c r="AG20"/>
       <c r="AH20"/>
     </row>
-    <row r="21" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="20"/>
       <c r="F21" s="57"/>
       <c r="G21"/>
@@ -14021,7 +14115,7 @@
       <c r="AG21"/>
       <c r="AH21"/>
     </row>
-    <row r="22" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="20"/>
       <c r="F22" s="57"/>
       <c r="G22"/>
@@ -14030,7 +14124,7 @@
       <c r="AG22"/>
       <c r="AH22"/>
     </row>
-    <row r="23" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="20"/>
       <c r="F23" s="57"/>
       <c r="G23" t="s">
@@ -14041,16 +14135,24 @@
       <c r="AG23"/>
       <c r="AH23"/>
     </row>
-    <row r="24" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="20"/>
+    <row r="24" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="60">
+        <v>46029</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>249</v>
+      </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
+      <c r="O24" s="59" t="s">
+        <v>248</v>
+      </c>
       <c r="AG24"/>
       <c r="AH24"/>
     </row>
-    <row r="25" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="20"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -14061,7 +14163,7 @@
       <c r="AG25"/>
       <c r="AH25"/>
     </row>
-    <row r="26" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="20"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -14074,7 +14176,7 @@
       <c r="AG26"/>
       <c r="AH26"/>
     </row>
-    <row r="27" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="20"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -14083,32 +14185,32 @@
       <c r="AG27"/>
       <c r="AH27"/>
     </row>
-    <row r="29" spans="2:34" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:34" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="19"/>
       <c r="E29" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="20"/>
       <c r="E31" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="20"/>
     </row>
-    <row r="33" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20"/>
       <c r="F33" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="20"/>
       <c r="G34" s="19" t="s">
         <v>222</v>
@@ -14123,235 +14225,235 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="20"/>
     </row>
-    <row r="36" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="20"/>
     </row>
-    <row r="38" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="20"/>
     </row>
-    <row r="39" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20"/>
     </row>
-    <row r="40" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
     </row>
-    <row r="41" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="20"/>
     </row>
-    <row r="44" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20"/>
     </row>
-    <row r="45" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="20"/>
       <c r="G46" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:30" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="20"/>
     </row>
-    <row r="49" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="20"/>
     </row>
-    <row r="50" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="20"/>
     </row>
-    <row r="51" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="20"/>
     </row>
-    <row r="52" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="20"/>
     </row>
-    <row r="53" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="20"/>
     </row>
-    <row r="54" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="20"/>
     </row>
-    <row r="55" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="20"/>
     </row>
-    <row r="56" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="20"/>
     </row>
-    <row r="57" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="20"/>
     </row>
-    <row r="58" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
       <c r="G58" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="20"/>
       <c r="AB60" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="20"/>
       <c r="AC61" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="20"/>
       <c r="AE62" s="19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="20"/>
     </row>
-    <row r="64" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:31" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="20"/>
     </row>
-    <row r="65" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="20"/>
     </row>
-    <row r="66" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="20"/>
     </row>
-    <row r="68" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="20"/>
     </row>
-    <row r="69" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="20"/>
     </row>
-    <row r="70" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="20"/>
       <c r="G70" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="20"/>
     </row>
-    <row r="72" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="20"/>
     </row>
-    <row r="74" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="20"/>
     </row>
-    <row r="75" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="20"/>
     </row>
-    <row r="76" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="20"/>
     </row>
-    <row r="77" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="20"/>
     </row>
-    <row r="78" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="20"/>
     </row>
-    <row r="79" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="20"/>
     </row>
-    <row r="80" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="20"/>
     </row>
-    <row r="81" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="20"/>
     </row>
-    <row r="82" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="20"/>
       <c r="G82" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="20"/>
       <c r="H83" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="20"/>
     </row>
-    <row r="85" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="20"/>
       <c r="I85" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="8"/>
       <c r="D87" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="20"/>
     </row>
-    <row r="89" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="20"/>
       <c r="E89" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="20"/>
       <c r="F90" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="20"/>
       <c r="G91" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="20"/>
     </row>
-    <row r="93" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="20"/>
       <c r="F93" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="20"/>
       <c r="G94" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="20"/>
     </row>
-    <row r="96" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="12"/>
       <c r="D96" s="3" t="s">
         <v>40</v>

--- a/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
+++ b/合成後project/Document/1.辻斬り資料/2.辻斬リーマン画面仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\1.辻斬り資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\1.辻斬り資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9815DA9-AD64-49CC-879C-9AE7B2189648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF67406-9EC6-4A85-99A5-61C32F8E230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13989,9 +13989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF7549-40F2-4851-8926-A2CD829FADF8}">
   <dimension ref="A1:AH96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
